--- a/demo/demo.xlsx
+++ b/demo/demo.xlsx
@@ -385,260 +385,260 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>beleaguer</t>
+          <t>abstinence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>v. 困扰，骚扰；围困，围攻</t>
+          <t>n. 节制，禁绝（食物或酒精）</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>belated</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>adj. 迟到的，误期的</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>arduous</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>adj. 艰巨的，费力的；困难
+的</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>absolve</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>v. 免除…的过失;解除…的
+责任：</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>anoint</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>v. 选定，指定</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>agility</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>adj. 敏捷；灵活</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ascendancy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>n. 上升统治地位，优势</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>avocation</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>n. 副业，嗜好</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>abstain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>v. 自我克制，有意回避</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>abrasive</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>adj.态度无理的，粗鲁的</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>bemuse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>v. 使迷惑；使茫然; 使全神贯
+注，陷于</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>acquittal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>n. 宣告无罪；无罪的判决</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>berate</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>v.  (愤怒并长时间地)  批评或指责</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>balky</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>adj. 固执的，不听使唤的</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>befuddle</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>v. 使迷惑；使困惑</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>abysmal</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>adj. 极坏的；糟透的；深重
 的；无边的</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>arduous</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>adj. 艰巨的，费力的；困难
-的</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>absolve</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>v. 免除…的过失;解除…的
-责任：</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>anoint</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>v. 选定，指定</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>agility</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>adj. 敏捷；灵活</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ascendancy</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>n. 上升统治地位，优势</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>avocation</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>n. 副业，嗜好</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>belated</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>adj. 迟到的，误期的</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>abstinence</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>n. 节制，禁绝（食物或酒精）</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>abrasive</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>adj.态度无理的，粗鲁的</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>bemuse</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>v. 使迷惑；使茫然; 使全神贯
-注，陷于</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>acquittal</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>n. 宣告无罪；无罪的判决</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>berate</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>v.  (愤怒并长时间地)  批评或指责</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>aphorism</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>n.格言；警语</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>balky</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>adj. 固执的，不听使唤的</t>
-        </is>
-      </c>
-    </row>
     <row r="18">
       <c r="A18" t="n">
         <v>0</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>befuddle</t>
+          <t>aphorism</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>v. 使迷惑；使困惑</t>
+          <t>n.格言；警语</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>abstain</t>
+          <t>beleaguer</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>v. 自我克制，有意回避</t>
+          <t>v. 困扰，骚扰；围困，围攻</t>
         </is>
       </c>
     </row>
